--- a/data/inputs/healthcare_expenditure.xlsx
+++ b/data/inputs/healthcare_expenditure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\impact-measurement-framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\hfa-sroi-impact-model\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B7C0C-B5AF-42B0-96AD-EE7E3CB106DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D60D20-6DEA-476E-9897-0CDF92717B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2CE6FBE9-AE75-4029-9E57-8FD674267406}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{2CE6FBE9-AE75-4029-9E57-8FD674267406}"/>
   </bookViews>
   <sheets>
     <sheet name="API_SH.XPD.CHEX.PC.CD_DS2_en_cs" sheetId="1" r:id="rId1"/>
@@ -1908,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3BFF20-F0C7-48F3-B564-0CF28133778A}">
   <dimension ref="A1:Z266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -20424,8 +20424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C8E2B7-ECA1-43BB-974D-F33C96B87E48}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22459,8 +22459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796865B3-EC8B-441F-B4B1-B05093BB88D9}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>

--- a/data/inputs/healthcare_expenditure.xlsx
+++ b/data/inputs/healthcare_expenditure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\hfa-sroi-impact-model\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D60D20-6DEA-476E-9897-0CDF92717B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4A676-8493-4133-9FA4-C4036FC11601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{2CE6FBE9-AE75-4029-9E57-8FD674267406}"/>
+    <workbookView xWindow="1140" yWindow="800" windowWidth="9580" windowHeight="11200" activeTab="1" xr2:uid="{2CE6FBE9-AE75-4029-9E57-8FD674267406}"/>
   </bookViews>
   <sheets>
     <sheet name="API_SH.XPD.CHEX.PC.CD_DS2_en_cs" sheetId="1" r:id="rId1"/>
